--- a/data/statistical/filled_NaN_xlsx/江西省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/江西省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>39.6955</v>
       </c>
       <c r="E2">
-        <v>1641.391070902348</v>
+        <v>1641.39107093215</v>
       </c>
       <c r="F2">
         <v>4549.32</v>
@@ -609,85 +609,85 @@
         <v>8.720000000000001</v>
       </c>
       <c r="H2">
-        <v>40.40986842199345</v>
+        <v>40.40986842176062</v>
       </c>
       <c r="I2">
-        <v>3.6315995872028</v>
+        <v>3.631599587196888</v>
       </c>
       <c r="J2">
-        <v>90.96145579218864</v>
+        <v>90.96145580150187</v>
       </c>
       <c r="K2">
-        <v>41.31019098265097</v>
+        <v>41.31019098358229</v>
       </c>
       <c r="L2">
-        <v>1.004947411867781</v>
+        <v>1.028270282667148</v>
       </c>
       <c r="M2">
-        <v>186.1529400392901</v>
+        <v>186.1529400390573</v>
       </c>
       <c r="N2">
-        <v>255.3473039157689</v>
+        <v>255.347303929273</v>
       </c>
       <c r="O2">
-        <v>31.21166666271165</v>
+        <v>31.21166666597128</v>
       </c>
       <c r="P2">
-        <v>708.2563743311912</v>
+        <v>708.2563742473722</v>
       </c>
       <c r="Q2">
-        <v>90.32249999995111</v>
+        <v>90.32250000021304</v>
       </c>
       <c r="R2">
-        <v>27.81020638020709</v>
+        <v>27.81020638160408</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-38699.81560516357</v>
       </c>
       <c r="T2">
-        <v>41957.16083288193</v>
+        <v>41957.16082382202</v>
       </c>
       <c r="U2">
-        <v>0.3164615383357159</v>
+        <v>0.3164615385103389</v>
       </c>
       <c r="V2">
-        <v>4.799236326245591</v>
+        <v>4.799236335558817</v>
       </c>
       <c r="W2">
-        <v>32.84610988222994</v>
+        <v>32.84610989200883</v>
       </c>
       <c r="X2">
         <v>5162.61274510622</v>
       </c>
       <c r="Y2">
-        <v>59.11211276331857</v>
+        <v>52.28741894648821</v>
       </c>
       <c r="Z2">
-        <v>27962.78793764114</v>
+        <v>27962.7879178524</v>
       </c>
       <c r="AA2">
-        <v>1262.020979322493</v>
+        <v>1262.020979307592</v>
       </c>
       <c r="AB2">
-        <v>1987546.904190063</v>
+        <v>1987546.904174805</v>
       </c>
       <c r="AC2">
-        <v>1921982.907730103</v>
+        <v>1921982.908874512</v>
       </c>
       <c r="AD2">
-        <v>10987.73252183199</v>
+        <v>10987.73251819611</v>
       </c>
       <c r="AE2">
-        <v>15782.40112802386</v>
+        <v>15782.4011233449</v>
       </c>
       <c r="AF2">
-        <v>16737.14663642645</v>
+        <v>16737.14663535357</v>
       </c>
       <c r="AG2">
-        <v>-6180.629057119498</v>
+        <v>20496.39055916496</v>
       </c>
       <c r="AH2">
-        <v>643135.6051158905</v>
+        <v>643135.6052932739</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>8.09</v>
       </c>
       <c r="H3">
-        <v>40.85012770968024</v>
+        <v>40.85012770944741</v>
       </c>
       <c r="I3">
         <v>3.6</v>
       </c>
       <c r="J3">
-        <v>63.14908256940544</v>
+        <v>63.14908257871866</v>
       </c>
       <c r="K3">
         <v>37.4010208697696</v>
@@ -743,13 +743,13 @@
         <v>92.14</v>
       </c>
       <c r="R3">
-        <v>22.43681371049024</v>
+        <v>22.4368137109559</v>
       </c>
       <c r="S3">
         <v>30100.8</v>
       </c>
       <c r="T3">
-        <v>50171.70409631729</v>
+        <v>50171.70408725739</v>
       </c>
       <c r="U3">
         <v>0.76</v>
@@ -764,34 +764,34 @@
         <v>3073</v>
       </c>
       <c r="Y3">
-        <v>58.00412686491801</v>
+        <v>73.7737873202866</v>
       </c>
       <c r="Z3">
-        <v>49856.12746167183</v>
+        <v>49856.12744379044</v>
       </c>
       <c r="AA3">
-        <v>1035.230769470334</v>
+        <v>1035.230769447982</v>
       </c>
       <c r="AB3">
-        <v>1658639.4947052</v>
+        <v>1658639.494674683</v>
       </c>
       <c r="AC3">
-        <v>1576790.977645874</v>
+        <v>1576790.978683472</v>
       </c>
       <c r="AD3">
-        <v>9000.435318470001</v>
+        <v>9000.435315012932</v>
       </c>
       <c r="AE3">
-        <v>13926.01786622405</v>
+        <v>13926.01786223054</v>
       </c>
       <c r="AF3">
-        <v>14619.18442928791</v>
+        <v>14619.18442833424</v>
       </c>
       <c r="AG3">
-        <v>33063.41158597323</v>
+        <v>36570.87560620362</v>
       </c>
       <c r="AH3">
-        <v>553787.7390098572</v>
+        <v>553787.7391719818</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>7.62</v>
       </c>
       <c r="H4">
-        <v>41.36183823575266</v>
+        <v>41.36183823554893</v>
       </c>
       <c r="I4">
         <v>3.6</v>
       </c>
       <c r="J4">
-        <v>41.92767518013716</v>
+        <v>41.92767518758774</v>
       </c>
       <c r="K4">
         <v>32.4008447363092</v>
@@ -847,7 +847,7 @@
         <v>91.94</v>
       </c>
       <c r="R4">
-        <v>17.76426469371654</v>
+        <v>17.76426469325088</v>
       </c>
       <c r="S4">
         <v>40155.4</v>
@@ -868,34 +868,34 @@
         <v>3137</v>
       </c>
       <c r="Y4">
-        <v>50.71709618312335</v>
+        <v>70.73156260957026</v>
       </c>
       <c r="Z4">
         <v>58097</v>
       </c>
       <c r="AA4">
-        <v>832.8701300770044</v>
+        <v>832.8701300397515</v>
       </c>
       <c r="AB4">
-        <v>1362531.817230225</v>
+        <v>1362531.817199707</v>
       </c>
       <c r="AC4">
-        <v>1269147.940750122</v>
+        <v>1269147.941711426</v>
       </c>
       <c r="AD4">
-        <v>7223.176576733589</v>
+        <v>7223.176573395729</v>
       </c>
       <c r="AE4">
-        <v>12189.11783993244</v>
+        <v>12189.11783665419</v>
       </c>
       <c r="AF4">
-        <v>12640.22675734758</v>
+        <v>12640.22675651312</v>
       </c>
       <c r="AG4">
-        <v>18495.48196207963</v>
+        <v>-3293.479789713749</v>
       </c>
       <c r="AH4">
-        <v>471794.3585758209</v>
+        <v>471794.3587188721</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.5</v>
       </c>
       <c r="J5">
-        <v>27.29723361134529</v>
+        <v>27.29723362252116</v>
       </c>
       <c r="K5">
         <v>29.6029343614116</v>
@@ -972,34 +972,34 @@
         <v>3577</v>
       </c>
       <c r="Y5">
-        <v>67.8238273612526</v>
+        <v>58.14430087642438</v>
       </c>
       <c r="Z5">
         <v>47589</v>
       </c>
       <c r="AA5">
-        <v>654.9390610978007</v>
+        <v>654.9390610679984</v>
       </c>
       <c r="AB5">
-        <v>1099223.871795654</v>
+        <v>1099223.871734619</v>
       </c>
       <c r="AC5">
-        <v>999053.7971191406</v>
+        <v>999053.7979888916</v>
       </c>
       <c r="AD5">
-        <v>5655.956296443939</v>
+        <v>5655.956293344498</v>
       </c>
       <c r="AE5">
-        <v>10571.70104926825</v>
+        <v>10571.70104649663</v>
       </c>
       <c r="AF5">
-        <v>10800.27362042665</v>
+        <v>10800.273619771</v>
       </c>
       <c r="AG5">
-        <v>19161.1615461033</v>
+        <v>23358.44459506225</v>
       </c>
       <c r="AH5">
-        <v>397155.4638023376</v>
+        <v>397155.4639320374</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>3766</v>
       </c>
       <c r="Y6">
-        <v>56.97689066363628</v>
+        <v>53.31545249661488</v>
       </c>
       <c r="Z6">
         <v>63601</v>
       </c>
       <c r="AA6">
-        <v>501.4375625625253</v>
+        <v>501.4375625252724</v>
       </c>
       <c r="AB6">
-        <v>868715.6583633423</v>
+        <v>868715.6583099365</v>
       </c>
       <c r="AC6">
-        <v>766508.5466461182</v>
+        <v>766508.5474395752</v>
       </c>
       <c r="AD6">
-        <v>4298.77447783947</v>
+        <v>4298.774474918842</v>
       </c>
       <c r="AE6">
-        <v>9073.767494022846</v>
+        <v>9073.767491817474</v>
       </c>
       <c r="AF6">
-        <v>9099.325018763542</v>
+        <v>9099.325018167496</v>
       </c>
       <c r="AG6">
-        <v>4256.557882016337</v>
+        <v>23792.59105907809</v>
       </c>
       <c r="AH6">
-        <v>329871.0547008514</v>
+        <v>329871.0548095703</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>157416</v>
       </c>
       <c r="AA7">
-        <v>372.3656344488263</v>
+        <v>372.3656344041228</v>
       </c>
       <c r="AB7">
-        <v>671007.1769790649</v>
+        <v>671007.1769104004</v>
       </c>
       <c r="AC7">
-        <v>571512.1894073486</v>
+        <v>571512.1901092529</v>
       </c>
       <c r="AD7">
-        <v>3151.631120800972</v>
+        <v>3151.631118118763</v>
       </c>
       <c r="AE7">
-        <v>7695.317174315453</v>
+        <v>7695.317172676325</v>
       </c>
       <c r="AF7">
-        <v>7537.380952239037</v>
+        <v>7537.380951702595</v>
       </c>
       <c r="AG7">
-        <v>823.3673294511646</v>
+        <v>46929.80137048139</v>
       </c>
       <c r="AH7">
-        <v>269941.1312618256</v>
+        <v>269941.1313591003</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>267032</v>
       </c>
       <c r="AA8">
-        <v>267.7232767865062</v>
+        <v>267.7232767343521</v>
       </c>
       <c r="AB8">
-        <v>506098.4275970459</v>
+        <v>506098.4275283813</v>
       </c>
       <c r="AC8">
-        <v>414064.725402832</v>
+        <v>414064.7260131836</v>
       </c>
       <c r="AD8">
-        <v>2214.52622538805</v>
+        <v>2214.52622282505</v>
       </c>
       <c r="AE8">
-        <v>6436.350090205669</v>
+        <v>6436.350088953972</v>
       </c>
       <c r="AF8">
-        <v>6114.441420912743</v>
+        <v>6114.441420376301</v>
       </c>
       <c r="AG8">
-        <v>13142.45589401973</v>
+        <v>-17223.66770860897</v>
       </c>
       <c r="AH8">
-        <v>217365.6934909821</v>
+        <v>217365.6935749054</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>228630</v>
       </c>
       <c r="AA9">
-        <v>187.510489538312</v>
+        <v>187.5104895010591</v>
       </c>
       <c r="AB9">
-        <v>373989.4102478027</v>
+        <v>373989.4101791382</v>
       </c>
       <c r="AC9">
-        <v>294166.1545715332</v>
+        <v>294166.1551208496</v>
       </c>
       <c r="AD9">
-        <v>1487.459791481495</v>
+        <v>1487.459789156914</v>
       </c>
       <c r="AE9">
-        <v>5296.866241574287</v>
+        <v>5296.866240739822</v>
       </c>
       <c r="AF9">
-        <v>4830.506424605846</v>
+        <v>4830.506424248219</v>
       </c>
       <c r="AG9">
-        <v>16734.1803541578</v>
+        <v>38883.14070494564</v>
       </c>
       <c r="AH9">
-        <v>172144.7413883209</v>
+        <v>172144.7414588928</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>200778</v>
       </c>
       <c r="AA10">
-        <v>131.7272727414966</v>
+        <v>131.7272726818919</v>
       </c>
       <c r="AB10">
-        <v>274680.1249160767</v>
+        <v>274680.1248550415</v>
       </c>
       <c r="AC10">
-        <v>211816.4769897461</v>
+        <v>211816.477432251</v>
       </c>
       <c r="AD10">
-        <v>970.4318190217018</v>
+        <v>970.4318170547485</v>
       </c>
       <c r="AE10">
-        <v>4276.865628451109</v>
+        <v>4276.865627944469</v>
       </c>
       <c r="AF10">
-        <v>3685.575963556767</v>
+        <v>3685.575963199139</v>
       </c>
       <c r="AG10">
-        <v>32851.44429242867</v>
+        <v>-18127.86093261082</v>
       </c>
       <c r="AH10">
-        <v>134278.2749500275</v>
+        <v>134278.2750110626</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1997,7 +1997,7 @@
         <v>389367</v>
       </c>
       <c r="T15">
-        <v>55604.4017996788</v>
+        <v>55604.40180301666</v>
       </c>
       <c r="U15">
         <v>1.41</v>
@@ -2178,10 +2178,10 @@
         <v>427.619</v>
       </c>
       <c r="K17">
-        <v>13.70936873846222</v>
+        <v>13.70936873776373</v>
       </c>
       <c r="L17">
-        <v>0.95910979332607</v>
+        <v>0.8977598724206023</v>
       </c>
       <c r="M17">
         <v>15.8569971174095</v>
@@ -2282,10 +2282,10 @@
         <v>522.4</v>
       </c>
       <c r="K18">
-        <v>14.821441631997</v>
+        <v>14.8214416311821</v>
       </c>
       <c r="L18">
-        <v>0.936497159144365</v>
+        <v>0.9140318882126317</v>
       </c>
       <c r="M18">
         <v>11.3451214885935</v>
@@ -2312,13 +2312,13 @@
         <v>44234</v>
       </c>
       <c r="U18">
-        <v>1.62389010998595</v>
+        <v>1.623890109724016</v>
       </c>
       <c r="V18">
         <v>95.8</v>
       </c>
       <c r="W18">
-        <v>95.8798241824843</v>
+        <v>95.87982417084277</v>
       </c>
       <c r="X18">
         <v>700</v>
@@ -2345,7 +2345,7 @@
         <v>282.6</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>-469.7044593095779</v>
       </c>
       <c r="AG18">
         <v>4532.6</v>
@@ -2368,7 +2368,7 @@
         <v>47.7932</v>
       </c>
       <c r="E19">
-        <v>19158.46607160568</v>
+        <v>19158.46607148647</v>
       </c>
       <c r="F19">
         <v>22714.2674</v>
@@ -2386,10 +2386,10 @@
         <v>555.8</v>
       </c>
       <c r="K19">
-        <v>16.30253048927989</v>
+        <v>16.30253048834857</v>
       </c>
       <c r="L19">
-        <v>0.8937587200444277</v>
+        <v>0.9266634046572839</v>
       </c>
       <c r="M19">
         <v>9.17212965767949</v>
@@ -2416,13 +2416,13 @@
         <v>760</v>
       </c>
       <c r="U19">
-        <v>1.579670329763758</v>
+        <v>1.579670329476357</v>
       </c>
       <c r="V19">
         <v>95.40000000000001</v>
       </c>
       <c r="W19">
-        <v>94.72554396349005</v>
+        <v>94.72554394975305</v>
       </c>
       <c r="X19">
         <v>5469</v>
@@ -2449,7 +2449,7 @@
         <v>1046.8</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>-363.5941039323807</v>
       </c>
       <c r="AG19">
         <v>2575.6</v>
@@ -2472,7 +2472,7 @@
         <v>48.2129</v>
       </c>
       <c r="E20">
-        <v>20630.93792030215</v>
+        <v>20630.93792018294</v>
       </c>
       <c r="F20">
         <v>22134.3148</v>
@@ -2490,10 +2490,10 @@
         <v>616.8134</v>
       </c>
       <c r="K20">
-        <v>18.15263531031087</v>
+        <v>18.15263530914672</v>
       </c>
       <c r="L20">
-        <v>0.8802572535217777</v>
+        <v>0.8614665498961794</v>
       </c>
       <c r="M20">
         <v>3.99104762275461</v>
@@ -2517,16 +2517,16 @@
         <v>521998</v>
       </c>
       <c r="T20">
-        <v>7117.674411296844</v>
+        <v>7117.674421310425</v>
       </c>
       <c r="U20">
-        <v>1.520634777087253</v>
+        <v>1.520634776752559</v>
       </c>
       <c r="V20">
         <v>97.5</v>
       </c>
       <c r="W20">
-        <v>92.97198287793435</v>
+        <v>92.97198286280036</v>
       </c>
       <c r="X20">
         <v>5768</v>
@@ -2550,10 +2550,10 @@
         <v>8169</v>
       </c>
       <c r="AE20">
-        <v>648.4374515116215</v>
+        <v>648.437451511621</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>-118.4792134165764</v>
       </c>
       <c r="AG20">
         <v>3879</v>
@@ -2576,7 +2576,7 @@
         <v>47.8178</v>
       </c>
       <c r="E21">
-        <v>22152.52706593275</v>
+        <v>22152.52706578374</v>
       </c>
       <c r="F21">
         <v>24586.5</v>
@@ -2594,25 +2594,25 @@
         <v>592.3957</v>
       </c>
       <c r="K21">
-        <v>20.37175609508995</v>
+        <v>20.37175609380938</v>
       </c>
       <c r="L21">
-        <v>1.013267519710573</v>
+        <v>0.8465334149276087</v>
       </c>
       <c r="M21">
         <v>2.95448906542621</v>
       </c>
       <c r="N21">
-        <v>198.8159313728102</v>
+        <v>198.8159313574433</v>
       </c>
       <c r="O21">
-        <v>114.5928431311622</v>
+        <v>114.59284312604</v>
       </c>
       <c r="P21">
         <v>695.3</v>
       </c>
       <c r="Q21">
-        <v>101.6409313725599</v>
+        <v>101.6409313722397</v>
       </c>
       <c r="R21">
         <v>46.4</v>
@@ -2621,22 +2621,22 @@
         <v>696876</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-6162.048802375793</v>
       </c>
       <c r="U21">
-        <v>1.446783451949159</v>
+        <v>1.446783451574447</v>
       </c>
       <c r="V21">
         <v>98.09999999999999</v>
       </c>
       <c r="W21">
-        <v>90.61914092628285</v>
+        <v>90.61914090928622</v>
       </c>
       <c r="X21">
-        <v>4781.769607186317</v>
+        <v>4781.769607037306</v>
       </c>
       <c r="Y21">
-        <v>68.06088056309851</v>
+        <v>64.37207315355541</v>
       </c>
       <c r="Z21">
         <v>256815</v>
@@ -2680,7 +2680,7 @@
         <v>47.5879</v>
       </c>
       <c r="E22">
-        <v>23723.23350848258</v>
+        <v>23723.23350830376</v>
       </c>
       <c r="F22">
         <v>25975.5296</v>
@@ -2692,58 +2692,58 @@
         <v>62.07</v>
       </c>
       <c r="I22">
-        <v>3.079318885439989</v>
+        <v>3.079318885447719</v>
       </c>
       <c r="J22">
-        <v>786.9974985886365</v>
+        <v>786.9974985662848</v>
       </c>
       <c r="K22">
-        <v>22.95989284350071</v>
+        <v>22.95989284222014</v>
       </c>
       <c r="L22">
-        <v>1.02001974255055</v>
+        <v>0.8364995069776818</v>
       </c>
       <c r="M22">
-        <v>5.879154005786404</v>
+        <v>5.879154008580372</v>
       </c>
       <c r="N22">
-        <v>207.6505804941989</v>
+        <v>207.6505804783665</v>
       </c>
       <c r="O22">
-        <v>134.3939680005424</v>
+        <v>134.3939679940231</v>
       </c>
       <c r="P22">
-        <v>553.763051437214</v>
+        <v>553.7630515359342</v>
       </c>
       <c r="Q22">
-        <v>103.2792853456631</v>
+        <v>103.279285345372</v>
       </c>
       <c r="R22">
-        <v>53.50264705833979</v>
+        <v>53.50264706788585</v>
       </c>
       <c r="S22">
         <v>606399</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-20635.89794254303</v>
       </c>
       <c r="U22">
-        <v>1.358116354345839</v>
+        <v>1.358116353920195</v>
       </c>
       <c r="V22">
-        <v>94.02871001767926</v>
+        <v>94.02871000696905</v>
       </c>
       <c r="W22">
-        <v>87.66701810853556</v>
+        <v>87.66701808921061</v>
       </c>
       <c r="X22">
-        <v>5565.241743266582</v>
+        <v>5565.241743087769</v>
       </c>
       <c r="Y22">
-        <v>67.00713906676877</v>
+        <v>53.89021616882179</v>
       </c>
       <c r="Z22">
-        <v>279360.8529286385</v>
+        <v>279360.8529479504</v>
       </c>
       <c r="AA22">
         <v>1391</v>
@@ -2761,7 +2761,7 @@
         <v>1331.4</v>
       </c>
       <c r="AF22">
-        <v>788.7641726732254</v>
+        <v>788.7641726732249</v>
       </c>
       <c r="AG22">
         <v>34986.3</v>
@@ -2784,94 +2784,94 @@
         <v>49.8</v>
       </c>
       <c r="E23">
-        <v>25343.05724795163</v>
+        <v>25343.05724772811</v>
       </c>
       <c r="F23">
-        <v>27800.42918294668</v>
+        <v>27800.42918276787</v>
       </c>
       <c r="G23">
         <v>-0.84</v>
       </c>
       <c r="H23">
-        <v>64.66007353062741</v>
+        <v>64.660073530511</v>
       </c>
       <c r="I23">
-        <v>3.067711042301198</v>
+        <v>3.067711042309838</v>
       </c>
       <c r="J23">
-        <v>891.00444191508</v>
+        <v>891.0044418908656</v>
       </c>
       <c r="K23">
-        <v>25.91704555565957</v>
+        <v>25.91704555426259</v>
       </c>
       <c r="L23">
-        <v>0.9963091742970479</v>
+        <v>0.886045355737308</v>
       </c>
       <c r="M23">
-        <v>7.071308415383101</v>
+        <v>7.071308418409899</v>
       </c>
       <c r="N23">
-        <v>217.6662280689925</v>
+        <v>217.6662280508317</v>
       </c>
       <c r="O23">
-        <v>155.7363570602611</v>
+        <v>155.7363570518792</v>
       </c>
       <c r="P23">
-        <v>612.4243470523506</v>
+        <v>612.4243471641093</v>
       </c>
       <c r="Q23">
-        <v>105.0219040247321</v>
+        <v>105.0219040244119</v>
       </c>
       <c r="R23">
-        <v>62.14612744888291</v>
+        <v>62.14612746052444</v>
       </c>
       <c r="S23">
-        <v>695149.6528191566</v>
+        <v>695149.6528010368</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-36303.87299919128</v>
       </c>
       <c r="U23">
-        <v>1.254633484277292</v>
+        <v>1.254633483811631</v>
       </c>
       <c r="V23">
-        <v>91.87795460154302</v>
+        <v>91.87795458943583</v>
       </c>
       <c r="W23">
-        <v>84.11561442445964</v>
+        <v>84.11561440350488</v>
       </c>
       <c r="X23">
-        <v>6429.065530568361</v>
+        <v>6429.065530329943</v>
       </c>
       <c r="Y23">
-        <v>45.73651488275551</v>
+        <v>59.70985344627245</v>
       </c>
       <c r="Z23">
-        <v>281625.9055585861</v>
+        <v>281625.9055802822</v>
       </c>
       <c r="AA23">
-        <v>1629.636363729835</v>
+        <v>1629.636363819242</v>
       </c>
       <c r="AB23">
-        <v>1968435.029815674</v>
+        <v>1968435.029914856</v>
       </c>
       <c r="AC23">
-        <v>2558219.950469971</v>
+        <v>2558219.950073242</v>
       </c>
       <c r="AD23">
-        <v>13362.56818199158</v>
+        <v>13362.56818431616</v>
       </c>
       <c r="AE23">
-        <v>1889.83209118247</v>
+        <v>1889.832090109587</v>
       </c>
       <c r="AF23">
-        <v>1450.892668604851</v>
+        <v>1450.892668962479</v>
       </c>
       <c r="AG23">
-        <v>24058.65177525154</v>
+        <v>-5679.661287093951</v>
       </c>
       <c r="AH23">
-        <v>311272.4069309235</v>
+        <v>311272.4069023132</v>
       </c>
     </row>
   </sheetData>
